--- a/Experimental_scripts/Lists/repswitch_fam.xlsx
+++ b/Experimental_scripts/Lists/repswitch_fam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9268D-D016-49A1-B5B6-2F499A1A0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE49EB-336A-4DDF-B76D-30BD4F677C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,78 +116,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_128.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_142.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_152.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_16.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_175.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_178.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_19.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_199.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_235.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_242.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_264.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_271.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_30.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_319.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_320.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_381.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_48.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_517.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_552.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_576.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_610.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_687.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_719.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_8.png</t>
-  </si>
-  <si>
     <t>oreja</t>
   </si>
   <si>
@@ -200,18 +128,6 @@
     <t>pulpo</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_35.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_135.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_464.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_728.png</t>
-  </si>
-  <si>
     <t>rana</t>
   </si>
   <si>
@@ -233,30 +149,18 @@
     <t>sirena</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_169.png</t>
-  </si>
-  <si>
     <t>espalda</t>
   </si>
   <si>
     <t>regalo</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_338.png</t>
-  </si>
-  <si>
     <t>cerdo</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_446.png</t>
-  </si>
-  <si>
     <t>taza</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_498.png</t>
-  </si>
-  <si>
     <t>espejo</t>
   </si>
   <si>
@@ -275,43 +179,139 @@
     <t>columna</t>
   </si>
   <si>
-    <t>REPSWITCH1_Fam/PICTURE_612.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_599.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_570.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_733.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_614.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_110.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_12.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_340.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_590.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Fam/PICTURE_673.png</t>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_590.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Experimental_scripts/Pictures_Fam/PICTURE_673.png</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -949,15 +949,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -981,15 +981,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1080,23 +1080,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -1104,23 +1104,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>18</v>
@@ -1128,15 +1128,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>20</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>21</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>23</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>24</v>
@@ -1184,15 +1184,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>25</v>
@@ -1203,7 +1203,7 @@
         <v>80</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
         <v>82</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>83</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1243,7 @@
         <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>87</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>88</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
         <v>89</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>90</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>92</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental_scripts/Lists/repswitch_fam.xlsx
+++ b/Experimental_scripts/Lists/repswitch_fam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE49EB-336A-4DDF-B76D-30BD4F677C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31A037-D9B4-4AF6-9A25-4CDFF7D43A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="912" windowWidth="17736" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -179,139 +179,139 @@
     <t>columna</t>
   </si>
   <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_128.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_135.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_142.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_152.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_16.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_169.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_175.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_178.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_19.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_199.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_235.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_242.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_264.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_271.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_30.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_319.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_320.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_338.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_35.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_381.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_446.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_464.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_48.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_498.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_517.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_552.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_576.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_610.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_687.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_719.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_728.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_8.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_612.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_599.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_570.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_733.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_614.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_110.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_12.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_340.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_590.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>Experimental_scripts/Pictures_Fam/PICTURE_673.png</t>
+    <t>Pictures_Fam/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_590.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Pictures_Fam/PICTURE_673.png</t>
   </si>
 </sst>
 </file>
@@ -922,12 +922,12 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
